--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Scenarie</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">forsuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontrol</t>
   </si>
   <si>
     <t xml:space="preserve">køling</t>
@@ -481,30 +484,26 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>16018.3287812228</v>
-      </c>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13773.9980857322</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16797.5586411368</v>
+        <v>16018.3287812228</v>
       </c>
     </row>
     <row r="11">
@@ -512,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>15867.60959693</v>
+        <v>13773.9980857322</v>
       </c>
     </row>
     <row r="12">
@@ -526,18 +525,18 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>11718.4966554201</v>
+        <v>16797.5586411368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>16797.5586411368</v>
+        <v>15867.60959693</v>
       </c>
     </row>
     <row r="14">
@@ -545,10 +544,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>15867.60959693</v>
+        <v>11718.4966554201</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>14962.2531492315</v>
+        <v>16797.5586411368</v>
       </c>
     </row>
     <row r="16">
@@ -570,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7494.97316079</v>
+        <v>15867.60959693</v>
       </c>
     </row>
     <row r="17">
@@ -581,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>13214.9398621361</v>
+        <v>14962.2531492315</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5321.4309441609</v>
+        <v>7494.97316079</v>
       </c>
     </row>
     <row r="19">
@@ -603,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>16115.7803196782</v>
+        <v>13214.9398621361</v>
       </c>
     </row>
     <row r="20">
@@ -614,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>7494.97316079</v>
+        <v>5321.4309441609</v>
       </c>
     </row>
     <row r="21">
@@ -658,6 +657,28 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
+        <v>7494.97316079</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16115.7803196782</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
         <v>7494.97316079</v>
       </c>
     </row>

--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Scenarie</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">forsuring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kontrol</t>
   </si>
   <si>
     <t xml:space="preserve">køling</t>
@@ -484,26 +481,30 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="n">
+        <v>16018.3287812228</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9"/>
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13773.9980857322</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16018.3287812228</v>
+        <v>16797.5586411368</v>
       </c>
     </row>
     <row r="11">
@@ -511,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13773.9980857322</v>
+        <v>15867.60959693</v>
       </c>
     </row>
     <row r="12">
@@ -525,18 +526,18 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>16797.5586411368</v>
+        <v>11718.4966554201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>15867.60959693</v>
+        <v>16797.5586411368</v>
       </c>
     </row>
     <row r="14">
@@ -544,10 +545,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>11718.4966554201</v>
+        <v>15867.60959693</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>16797.5586411368</v>
+        <v>14962.2531492315</v>
       </c>
     </row>
     <row r="16">
@@ -569,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>15867.60959693</v>
+        <v>7494.97316079</v>
       </c>
     </row>
     <row r="17">
@@ -580,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>14962.2531492315</v>
+        <v>13214.9398621361</v>
       </c>
     </row>
     <row r="18">
@@ -591,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>7494.97316079</v>
+        <v>5321.4309441609</v>
       </c>
     </row>
     <row r="19">
@@ -602,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>13214.9398621361</v>
+        <v>16115.7803196782</v>
       </c>
     </row>
     <row r="20">
@@ -613,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>5321.4309441609</v>
+        <v>7494.97316079</v>
       </c>
     </row>
     <row r="21">
@@ -657,28 +658,6 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>7494.97316079</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>16115.7803196782</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
         <v>7494.97316079</v>
       </c>
     </row>
